--- a/biology/Botanique/Tetradenia/Tetradenia.xlsx
+++ b/biology/Botanique/Tetradenia/Tetradenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tetradenia est un genre de plantes à fleurs originaire d'Afrique (Madagascar incluse), appartenant à la famille des Lamiaceae, décrite pour la première fois en 1830[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tetradenia est un genre de plantes à fleurs originaire d'Afrique (Madagascar incluse), appartenant à la famille des Lamiaceae, décrite pour la première fois en 1830.
 Ce genre comprend notamment le faux patchouli (Tetradenia riparia).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tetradenia bainesii (N.E. Br.) Phillipson &amp; C. Steyn - Zimbabwe, Mozambique, Swaziland, KwaZulu-Natal
@@ -527,7 +541,7 @@
 Tetradenia goudotii Briq. - Madagascar
 Tetradenia herbacea Phillipson - Madagascar
 Tetradenia hildeana Phillipson - Madagascar
-Tetradenia hildebrandtii Briq. - syn. de Tetradenia fruticosa Benth.[3]
+Tetradenia hildebrandtii Briq. - syn. de Tetradenia fruticosa Benth.
 Tetradenia isaloensis Phillipson - Madagascar
 Tetradenia kaokoensis Van Jaarsv. &amp; A.E. van Wyk - Namibie
 Tetradenia multiflora (Benth.) Phillipson - Éthiopie
